--- a/0_1_Output_Data/5_ifoCAST_error_series_GVA_matched_since_2022/ifoCAst_errors_filtered_latest_since_2022_GVA.xlsx
+++ b/0_1_Output_Data/5_ifoCAST_error_series_GVA_matched_since_2022/ifoCAst_errors_filtered_latest_since_2022_GVA.xlsx
@@ -450,7 +450,7 @@
         <v>-0.3339644000363498</v>
       </c>
       <c r="D2">
-        <v>1.68749419387274</v>
+        <v>1.696990870036088</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -458,13 +458,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.1808837928727403</v>
+        <v>0.1903804690360879</v>
       </c>
       <c r="C3">
-        <v>1.088701449425983</v>
+        <v>1.06983264558209</v>
       </c>
       <c r="D3">
-        <v>-0.9686075303002357</v>
+        <v>-0.9590976180317647</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -472,10 +472,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.6881010354259836</v>
+        <v>0.66923223158209</v>
       </c>
       <c r="C4">
-        <v>-0.8547584633002359</v>
+        <v>-0.8452485510317647</v>
       </c>
       <c r="D4">
         <v>0.2901758192907124</v>
@@ -486,13 +486,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>-1.095357142300236</v>
+        <v>-1.085847230031765</v>
       </c>
       <c r="C5">
         <v>0.1761002812907124</v>
       </c>
       <c r="D5">
-        <v>0.982640004264559</v>
+        <v>0.9920349685636995</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -503,10 +503,10 @@
         <v>0.0971330122907124</v>
       </c>
       <c r="C6">
-        <v>0.923930449264559</v>
+        <v>0.9333254135636995</v>
       </c>
       <c r="D6">
-        <v>0.8765450433311289</v>
+        <v>0.8577491755291454</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -514,13 +514,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>1.111666588264559</v>
+        <v>1.1210615525637</v>
       </c>
       <c r="C7">
-        <v>0.4073451583311289</v>
+        <v>0.3885492905291454</v>
       </c>
       <c r="D7">
-        <v>-0.8968591131624527</v>
+        <v>-0.8873425837224346</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -528,13 +528,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.437053797331129</v>
+        <v>0.4182579295291455</v>
       </c>
       <c r="C8">
-        <v>-0.6550085641624527</v>
+        <v>-0.6454920347224345</v>
       </c>
       <c r="D8">
-        <v>-1.033768334937675</v>
+        <v>-1.024285167559779</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -542,13 +542,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.5639247011624527</v>
+        <v>-0.5544081717224345</v>
       </c>
       <c r="C9">
-        <v>-1.200998811033057</v>
+        <v>-1.191515643655161</v>
       </c>
       <c r="D9">
-        <v>1.016878087510011</v>
+        <v>1.016949629488724</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -556,13 +556,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>-1.274882450912215</v>
+        <v>-1.26539928353432</v>
       </c>
       <c r="C10">
-        <v>0.5245482115100106</v>
+        <v>0.5246197534887239</v>
       </c>
       <c r="D10">
-        <v>0.3271357364848366</v>
+        <v>0.3082097950934801</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -570,13 +570,13 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>0.3294742345100106</v>
+        <v>0.3295457764887239</v>
       </c>
       <c r="C11">
-        <v>0.5358974354848366</v>
+        <v>0.5169714940934801</v>
       </c>
       <c r="D11">
-        <v>0.8327439828064123</v>
+        <v>0.8421929667131937</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -584,10 +584,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.01077749951516341</v>
+        <v>-0.02970344090651991</v>
       </c>
       <c r="C12">
-        <v>-0.1893556991935877</v>
+        <v>-0.1799067152868063</v>
       </c>
       <c r="D12">
         <v>0.5381773248377819</v>
@@ -598,13 +598,13 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.2764766371935877</v>
+        <v>-0.2670276532868063</v>
       </c>
       <c r="C13">
         <v>0.411496762837782</v>
       </c>
       <c r="D13">
-        <v>-0.5094533513890247</v>
+        <v>-0.4617206544916527</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -615,10 +615,10 @@
         <v>0.5544511758377819</v>
       </c>
       <c r="C14">
-        <v>-0.2311459983890247</v>
+        <v>-0.1834133014916527</v>
       </c>
       <c r="D14">
-        <v>0.6341935262360052</v>
+        <v>0.5298148361758083</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -626,10 +626,13 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.01419920438902478</v>
+        <v>0.03353349250834725</v>
       </c>
       <c r="C15">
-        <v>0.2280757452360053</v>
+        <v>0.1236970551758083</v>
+      </c>
+      <c r="D15">
+        <v>0.5311946523564907</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -637,7 +640,10 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.0212972287639947</v>
+        <v>-0.1256759188241917</v>
+      </c>
+      <c r="C16">
+        <v>-0.02418658464350926</v>
       </c>
     </row>
   </sheetData>
